--- a/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
+++ b/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
@@ -33,514 +33,514 @@
     <t>Z3</t>
   </si>
   <si>
+    <t>413,3</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Pedido_3</t>
+  </si>
+  <si>
+    <t>Pedido_5</t>
+  </si>
+  <si>
+    <t>Pedido_34</t>
+  </si>
+  <si>
+    <t>Pedido_74</t>
+  </si>
+  <si>
+    <t>Pedido_20</t>
+  </si>
+  <si>
+    <t>Pedido_59</t>
+  </si>
+  <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
+    <t>Pedido_33</t>
+  </si>
+  <si>
+    <t>Pedido_12</t>
+  </si>
+  <si>
+    <t>Pedido_2</t>
+  </si>
+  <si>
+    <t>Pedido_10</t>
+  </si>
+  <si>
+    <t>Pedido_45</t>
+  </si>
+  <si>
+    <t>Pedido_13</t>
+  </si>
+  <si>
+    <t>Pedido_52</t>
+  </si>
+  <si>
+    <t>Pedido_37</t>
+  </si>
+  <si>
+    <t>Pedido_28</t>
+  </si>
+  <si>
+    <t>Pedido_64</t>
+  </si>
+  <si>
+    <t>Pedido_23</t>
+  </si>
+  <si>
+    <t>Pedido_11</t>
+  </si>
+  <si>
+    <t>Pedido_39</t>
+  </si>
+  <si>
+    <t>Pedido_71</t>
+  </si>
+  <si>
+    <t>Pedido_36</t>
+  </si>
+  <si>
+    <t>Pedido_43</t>
+  </si>
+  <si>
+    <t>Pedido_35</t>
+  </si>
+  <si>
+    <t>Pedido_4</t>
+  </si>
+  <si>
+    <t>Pedido_31</t>
+  </si>
+  <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
+    <t>Pedido_7</t>
+  </si>
+  <si>
+    <t>Pedido_56</t>
+  </si>
+  <si>
+    <t>Pedido_8</t>
+  </si>
+  <si>
+    <t>Pedido_29</t>
+  </si>
+  <si>
+    <t>Pedido_49</t>
+  </si>
+  <si>
+    <t>Pedido_15</t>
+  </si>
+  <si>
+    <t>Pedido_46</t>
+  </si>
+  <si>
+    <t>Pedido_9</t>
+  </si>
+  <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
+    <t>Pedido_6</t>
+  </si>
+  <si>
+    <t>Pedido_53</t>
+  </si>
+  <si>
+    <t>Pedido_24</t>
+  </si>
+  <si>
+    <t>Pedido_17</t>
+  </si>
+  <si>
+    <t>Pedido_19</t>
+  </si>
+  <si>
+    <t>Pedido_27</t>
+  </si>
+  <si>
+    <t>Pedido_25</t>
+  </si>
+  <si>
+    <t>Pedido_18</t>
+  </si>
+  <si>
+    <t>Pedido_55</t>
+  </si>
+  <si>
+    <t>Pedido_76</t>
+  </si>
+  <si>
+    <t>Pedido_14</t>
+  </si>
+  <si>
+    <t>Pedido_47</t>
+  </si>
+  <si>
+    <t>Pedido_51</t>
+  </si>
+  <si>
+    <t>Pedido_22</t>
+  </si>
+  <si>
+    <t>Pedido_40</t>
+  </si>
+  <si>
+    <t>Pedido_41</t>
+  </si>
+  <si>
+    <t>Pedido_67</t>
+  </si>
+  <si>
+    <t>Pedido_1</t>
+  </si>
+  <si>
+    <t>Pedido_44</t>
+  </si>
+  <si>
+    <t>Pedido_30</t>
+  </si>
+  <si>
+    <t>Pedido_48</t>
+  </si>
+  <si>
+    <t>Pedido_78</t>
+  </si>
+  <si>
+    <t>Pedido_80</t>
+  </si>
+  <si>
+    <t>Pedido_73</t>
+  </si>
+  <si>
+    <t>Pedido_61</t>
+  </si>
+  <si>
+    <t>Pedido_77</t>
+  </si>
+  <si>
+    <t>Pedido_75</t>
+  </si>
+  <si>
+    <t>Pedido_60</t>
+  </si>
+  <si>
+    <t>Pedido_79</t>
+  </si>
+  <si>
+    <t>Pedido_70</t>
+  </si>
+  <si>
+    <t>Pedido_54</t>
+  </si>
+  <si>
+    <t>Pedido_58</t>
+  </si>
+  <si>
+    <t>Pedido_38</t>
+  </si>
+  <si>
+    <t>Pedido_69</t>
+  </si>
+  <si>
+    <t>Pedido_62</t>
+  </si>
+  <si>
+    <t>Pedido_65</t>
+  </si>
+  <si>
+    <t>Pedido_50</t>
+  </si>
+  <si>
+    <t>Pedido_66</t>
+  </si>
+  <si>
+    <t>Pedido_42</t>
+  </si>
+  <si>
+    <t>Pedido_63</t>
+  </si>
+  <si>
+    <t>Pedido_68</t>
+  </si>
+  <si>
+    <t>Pedido_57</t>
+  </si>
+  <si>
+    <t>Pedido_16</t>
+  </si>
+  <si>
+    <t>Pedido_72</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S065</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S069</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S070</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S067</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S071</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S068</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S072</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S073</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S077</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S074</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S078</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S075</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S076</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S080</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
     <t>413,2</t>
   </si>
   <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Pedido_3</t>
-  </si>
-  <si>
-    <t>Pedido_5</t>
-  </si>
-  <si>
-    <t>Pedido_34</t>
-  </si>
-  <si>
-    <t>Pedido_74</t>
-  </si>
-  <si>
-    <t>Pedido_20</t>
-  </si>
-  <si>
-    <t>Pedido_59</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_33</t>
-  </si>
-  <si>
-    <t>Pedido_12</t>
-  </si>
-  <si>
-    <t>Pedido_2</t>
-  </si>
-  <si>
-    <t>Pedido_10</t>
-  </si>
-  <si>
-    <t>Pedido_45</t>
-  </si>
-  <si>
-    <t>Pedido_13</t>
-  </si>
-  <si>
-    <t>Pedido_52</t>
-  </si>
-  <si>
-    <t>Pedido_37</t>
-  </si>
-  <si>
-    <t>Pedido_28</t>
-  </si>
-  <si>
-    <t>Pedido_64</t>
-  </si>
-  <si>
-    <t>Pedido_23</t>
-  </si>
-  <si>
-    <t>Pedido_11</t>
-  </si>
-  <si>
-    <t>Pedido_39</t>
-  </si>
-  <si>
-    <t>Pedido_71</t>
-  </si>
-  <si>
-    <t>Pedido_36</t>
-  </si>
-  <si>
-    <t>Pedido_43</t>
-  </si>
-  <si>
-    <t>Pedido_35</t>
-  </si>
-  <si>
-    <t>Pedido_4</t>
-  </si>
-  <si>
-    <t>Pedido_31</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_7</t>
-  </si>
-  <si>
-    <t>Pedido_56</t>
-  </si>
-  <si>
-    <t>Pedido_8</t>
-  </si>
-  <si>
-    <t>Pedido_29</t>
-  </si>
-  <si>
-    <t>Pedido_49</t>
-  </si>
-  <si>
-    <t>Pedido_15</t>
-  </si>
-  <si>
-    <t>Pedido_46</t>
-  </si>
-  <si>
-    <t>Pedido_9</t>
-  </si>
-  <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
-    <t>Pedido_6</t>
-  </si>
-  <si>
-    <t>Pedido_53</t>
-  </si>
-  <si>
-    <t>Pedido_24</t>
-  </si>
-  <si>
-    <t>Pedido_17</t>
-  </si>
-  <si>
-    <t>Pedido_19</t>
-  </si>
-  <si>
-    <t>Pedido_27</t>
-  </si>
-  <si>
-    <t>Pedido_25</t>
-  </si>
-  <si>
-    <t>Pedido_18</t>
-  </si>
-  <si>
-    <t>Pedido_55</t>
-  </si>
-  <si>
-    <t>Pedido_76</t>
-  </si>
-  <si>
-    <t>Pedido_14</t>
-  </si>
-  <si>
-    <t>Pedido_47</t>
-  </si>
-  <si>
-    <t>Pedido_51</t>
-  </si>
-  <si>
-    <t>Pedido_22</t>
-  </si>
-  <si>
-    <t>Pedido_40</t>
-  </si>
-  <si>
-    <t>Pedido_41</t>
-  </si>
-  <si>
-    <t>Pedido_67</t>
-  </si>
-  <si>
-    <t>Pedido_1</t>
-  </si>
-  <si>
-    <t>Pedido_44</t>
-  </si>
-  <si>
-    <t>Pedido_48</t>
-  </si>
-  <si>
-    <t>Pedido_30</t>
-  </si>
-  <si>
-    <t>Pedido_78</t>
-  </si>
-  <si>
-    <t>Pedido_80</t>
-  </si>
-  <si>
-    <t>Pedido_73</t>
-  </si>
-  <si>
-    <t>Pedido_61</t>
-  </si>
-  <si>
-    <t>Pedido_77</t>
-  </si>
-  <si>
-    <t>Pedido_75</t>
-  </si>
-  <si>
-    <t>Pedido_60</t>
-  </si>
-  <si>
-    <t>Pedido_79</t>
-  </si>
-  <si>
-    <t>Pedido_54</t>
-  </si>
-  <si>
-    <t>Pedido_70</t>
-  </si>
-  <si>
-    <t>Pedido_58</t>
-  </si>
-  <si>
-    <t>Pedido_38</t>
-  </si>
-  <si>
-    <t>Pedido_69</t>
-  </si>
-  <si>
-    <t>Pedido_62</t>
-  </si>
-  <si>
-    <t>Pedido_65</t>
-  </si>
-  <si>
-    <t>Pedido_50</t>
-  </si>
-  <si>
-    <t>Pedido_66</t>
-  </si>
-  <si>
-    <t>Pedido_42</t>
-  </si>
-  <si>
-    <t>Pedido_63</t>
-  </si>
-  <si>
-    <t>Pedido_68</t>
-  </si>
-  <si>
-    <t>Pedido_57</t>
-  </si>
-  <si>
-    <t>Pedido_16</t>
-  </si>
-  <si>
-    <t>Pedido_72</t>
-  </si>
-  <si>
-    <t>S065</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S041</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S069</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S066</t>
-  </si>
-  <si>
-    <t>S042</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S070</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S043</t>
-  </si>
-  <si>
-    <t>S067</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S071</t>
-  </si>
-  <si>
-    <t>S047</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S068</t>
-  </si>
-  <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S072</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S048</t>
-  </si>
-  <si>
-    <t>S049</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S073</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S077</t>
-  </si>
-  <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S074</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S054</t>
-  </si>
-  <si>
-    <t>S078</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S075</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S079</t>
-  </si>
-  <si>
-    <t>S055</t>
-  </si>
-  <si>
-    <t>S052</t>
-  </si>
-  <si>
-    <t>S076</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S056</t>
-  </si>
-  <si>
-    <t>S080</t>
-  </si>
-  <si>
-    <t>S057</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S061</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S058</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S062</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S059</t>
-  </si>
-  <si>
-    <t>S063</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S060</t>
-  </si>
-  <si>
-    <t>S064</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>Z4</t>
-  </si>
-  <si>
-    <t>413,1</t>
-  </si>
-  <si>
-    <t>334,1</t>
-  </si>
-  <si>
-    <t>335,7</t>
+    <t>334,7</t>
+  </si>
+  <si>
+    <t>334,9</t>
   </si>
 </sst>
 </file>

--- a/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
+++ b/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
@@ -33,7 +33,7 @@
     <t>Z3</t>
   </si>
   <si>
-    <t>413,3</t>
+    <t>413,1</t>
   </si>
   <si>
     <t>Pedido</t>
@@ -144,12 +144,12 @@
     <t>Pedido_46</t>
   </si>
   <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
     <t>Pedido_9</t>
   </si>
   <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
     <t>Pedido_6</t>
   </si>
   <si>
@@ -207,12 +207,12 @@
     <t>Pedido_44</t>
   </si>
   <si>
+    <t>Pedido_48</t>
+  </si>
+  <si>
     <t>Pedido_30</t>
   </si>
   <si>
-    <t>Pedido_48</t>
-  </si>
-  <si>
     <t>Pedido_78</t>
   </si>
   <si>
@@ -237,12 +237,12 @@
     <t>Pedido_79</t>
   </si>
   <si>
+    <t>Pedido_54</t>
+  </si>
+  <si>
     <t>Pedido_70</t>
   </si>
   <si>
-    <t>Pedido_54</t>
-  </si>
-  <si>
     <t>Pedido_58</t>
   </si>
   <si>
@@ -282,12 +282,12 @@
     <t>Pedido_72</t>
   </si>
   <si>
+    <t>S065</t>
+  </si>
+  <si>
     <t>S025</t>
   </si>
   <si>
-    <t>S065</t>
-  </si>
-  <si>
     <t>S041</t>
   </si>
   <si>
@@ -297,63 +297,63 @@
     <t>S005</t>
   </si>
   <si>
+    <t>S045</t>
+  </si>
+  <si>
     <t>S069</t>
   </si>
   <si>
-    <t>S045</t>
-  </si>
-  <si>
     <t>S029</t>
   </si>
   <si>
     <t>S002</t>
   </si>
   <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
     <t>S026</t>
   </si>
   <si>
-    <t>S066</t>
-  </si>
-  <si>
-    <t>S042</t>
-  </si>
-  <si>
     <t>S006</t>
   </si>
   <si>
+    <t>S030</t>
+  </si>
+  <si>
     <t>S070</t>
   </si>
   <si>
     <t>S046</t>
   </si>
   <si>
-    <t>S030</t>
-  </si>
-  <si>
     <t>S003</t>
   </si>
   <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
     <t>S067</t>
   </si>
   <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S043</t>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S071</t>
   </si>
   <si>
     <t>S047</t>
   </si>
   <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S071</t>
-  </si>
-  <si>
     <t>S004</t>
   </si>
   <si>
@@ -369,12 +369,12 @@
     <t>S008</t>
   </si>
   <si>
+    <t>S032</t>
+  </si>
+  <si>
     <t>S048</t>
   </si>
   <si>
-    <t>S032</t>
-  </si>
-  <si>
     <t>S072</t>
   </si>
   <si>
@@ -384,10 +384,16 @@
     <t>S073</t>
   </si>
   <si>
+    <t>S049</t>
+  </si>
+  <si>
     <t>S033</t>
   </si>
   <si>
-    <t>S049</t>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S037</t>
   </si>
   <si>
     <t>S053</t>
@@ -396,102 +402,96 @@
     <t>S077</t>
   </si>
   <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S013</t>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S074</t>
   </si>
   <si>
     <t>S010</t>
   </si>
   <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S074</t>
-  </si>
-  <si>
-    <t>S034</t>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S078</t>
   </si>
   <si>
     <t>S014</t>
   </si>
   <si>
-    <t>S078</t>
-  </si>
-  <si>
     <t>S038</t>
   </si>
   <si>
-    <t>S054</t>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S075</t>
   </si>
   <si>
     <t>S011</t>
   </si>
   <si>
-    <t>S075</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
     <t>S015</t>
   </si>
   <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
     <t>S055</t>
   </si>
   <si>
-    <t>S079</t>
-  </si>
-  <si>
-    <t>S039</t>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S076</t>
   </si>
   <si>
     <t>S052</t>
   </si>
   <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S076</t>
-  </si>
-  <si>
     <t>S012</t>
   </si>
   <si>
     <t>S056</t>
   </si>
   <si>
+    <t>S040</t>
+  </si>
+  <si>
     <t>S016</t>
   </si>
   <si>
-    <t>S040</t>
-  </si>
-  <si>
     <t>S080</t>
   </si>
   <si>
+    <t>S017</t>
+  </si>
+  <si>
     <t>S057</t>
   </si>
   <si>
-    <t>S017</t>
+    <t>S021</t>
   </si>
   <si>
     <t>S061</t>
   </si>
   <si>
-    <t>S021</t>
+    <t>S018</t>
   </si>
   <si>
     <t>S058</t>
   </si>
   <si>
-    <t>S018</t>
-  </si>
-  <si>
     <t>S062</t>
   </si>
   <si>
@@ -534,13 +534,13 @@
     <t>Z4</t>
   </si>
   <si>
-    <t>413,2</t>
-  </si>
-  <si>
-    <t>334,7</t>
-  </si>
-  <si>
-    <t>334,9</t>
+    <t>412,9</t>
+  </si>
+  <si>
+    <t>334,0</t>
+  </si>
+  <si>
+    <t>336,0</t>
   </si>
 </sst>
 </file>

--- a/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
+++ b/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
@@ -33,514 +33,514 @@
     <t>Z3</t>
   </si>
   <si>
+    <t>413,2</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Pedido_3</t>
+  </si>
+  <si>
+    <t>Pedido_5</t>
+  </si>
+  <si>
+    <t>Pedido_34</t>
+  </si>
+  <si>
+    <t>Pedido_74</t>
+  </si>
+  <si>
+    <t>Pedido_20</t>
+  </si>
+  <si>
+    <t>Pedido_59</t>
+  </si>
+  <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
+    <t>Pedido_33</t>
+  </si>
+  <si>
+    <t>Pedido_12</t>
+  </si>
+  <si>
+    <t>Pedido_2</t>
+  </si>
+  <si>
+    <t>Pedido_10</t>
+  </si>
+  <si>
+    <t>Pedido_45</t>
+  </si>
+  <si>
+    <t>Pedido_13</t>
+  </si>
+  <si>
+    <t>Pedido_52</t>
+  </si>
+  <si>
+    <t>Pedido_37</t>
+  </si>
+  <si>
+    <t>Pedido_28</t>
+  </si>
+  <si>
+    <t>Pedido_64</t>
+  </si>
+  <si>
+    <t>Pedido_23</t>
+  </si>
+  <si>
+    <t>Pedido_11</t>
+  </si>
+  <si>
+    <t>Pedido_39</t>
+  </si>
+  <si>
+    <t>Pedido_71</t>
+  </si>
+  <si>
+    <t>Pedido_36</t>
+  </si>
+  <si>
+    <t>Pedido_43</t>
+  </si>
+  <si>
+    <t>Pedido_35</t>
+  </si>
+  <si>
+    <t>Pedido_4</t>
+  </si>
+  <si>
+    <t>Pedido_31</t>
+  </si>
+  <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
+    <t>Pedido_7</t>
+  </si>
+  <si>
+    <t>Pedido_56</t>
+  </si>
+  <si>
+    <t>Pedido_8</t>
+  </si>
+  <si>
+    <t>Pedido_29</t>
+  </si>
+  <si>
+    <t>Pedido_49</t>
+  </si>
+  <si>
+    <t>Pedido_15</t>
+  </si>
+  <si>
+    <t>Pedido_46</t>
+  </si>
+  <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
+    <t>Pedido_9</t>
+  </si>
+  <si>
+    <t>Pedido_6</t>
+  </si>
+  <si>
+    <t>Pedido_53</t>
+  </si>
+  <si>
+    <t>Pedido_24</t>
+  </si>
+  <si>
+    <t>Pedido_17</t>
+  </si>
+  <si>
+    <t>Pedido_19</t>
+  </si>
+  <si>
+    <t>Pedido_27</t>
+  </si>
+  <si>
+    <t>Pedido_25</t>
+  </si>
+  <si>
+    <t>Pedido_18</t>
+  </si>
+  <si>
+    <t>Pedido_55</t>
+  </si>
+  <si>
+    <t>Pedido_76</t>
+  </si>
+  <si>
+    <t>Pedido_14</t>
+  </si>
+  <si>
+    <t>Pedido_47</t>
+  </si>
+  <si>
+    <t>Pedido_51</t>
+  </si>
+  <si>
+    <t>Pedido_22</t>
+  </si>
+  <si>
+    <t>Pedido_40</t>
+  </si>
+  <si>
+    <t>Pedido_41</t>
+  </si>
+  <si>
+    <t>Pedido_67</t>
+  </si>
+  <si>
+    <t>Pedido_1</t>
+  </si>
+  <si>
+    <t>Pedido_44</t>
+  </si>
+  <si>
+    <t>Pedido_30</t>
+  </si>
+  <si>
+    <t>Pedido_48</t>
+  </si>
+  <si>
+    <t>Pedido_78</t>
+  </si>
+  <si>
+    <t>Pedido_80</t>
+  </si>
+  <si>
+    <t>Pedido_73</t>
+  </si>
+  <si>
+    <t>Pedido_61</t>
+  </si>
+  <si>
+    <t>Pedido_77</t>
+  </si>
+  <si>
+    <t>Pedido_75</t>
+  </si>
+  <si>
+    <t>Pedido_60</t>
+  </si>
+  <si>
+    <t>Pedido_79</t>
+  </si>
+  <si>
+    <t>Pedido_70</t>
+  </si>
+  <si>
+    <t>Pedido_54</t>
+  </si>
+  <si>
+    <t>Pedido_58</t>
+  </si>
+  <si>
+    <t>Pedido_38</t>
+  </si>
+  <si>
+    <t>Pedido_69</t>
+  </si>
+  <si>
+    <t>Pedido_62</t>
+  </si>
+  <si>
+    <t>Pedido_65</t>
+  </si>
+  <si>
+    <t>Pedido_50</t>
+  </si>
+  <si>
+    <t>Pedido_66</t>
+  </si>
+  <si>
+    <t>Pedido_42</t>
+  </si>
+  <si>
+    <t>Pedido_63</t>
+  </si>
+  <si>
+    <t>Pedido_68</t>
+  </si>
+  <si>
+    <t>Pedido_57</t>
+  </si>
+  <si>
+    <t>Pedido_16</t>
+  </si>
+  <si>
+    <t>Pedido_72</t>
+  </si>
+  <si>
+    <t>S065</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S069</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S070</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S067</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S071</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S068</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S072</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S073</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S077</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S074</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S078</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S075</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S076</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S080</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
     <t>413,1</t>
   </si>
   <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Pedido_3</t>
-  </si>
-  <si>
-    <t>Pedido_5</t>
-  </si>
-  <si>
-    <t>Pedido_34</t>
-  </si>
-  <si>
-    <t>Pedido_74</t>
-  </si>
-  <si>
-    <t>Pedido_20</t>
-  </si>
-  <si>
-    <t>Pedido_59</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_33</t>
-  </si>
-  <si>
-    <t>Pedido_12</t>
-  </si>
-  <si>
-    <t>Pedido_2</t>
-  </si>
-  <si>
-    <t>Pedido_10</t>
-  </si>
-  <si>
-    <t>Pedido_45</t>
-  </si>
-  <si>
-    <t>Pedido_13</t>
-  </si>
-  <si>
-    <t>Pedido_52</t>
-  </si>
-  <si>
-    <t>Pedido_37</t>
-  </si>
-  <si>
-    <t>Pedido_28</t>
-  </si>
-  <si>
-    <t>Pedido_64</t>
-  </si>
-  <si>
-    <t>Pedido_23</t>
-  </si>
-  <si>
-    <t>Pedido_11</t>
-  </si>
-  <si>
-    <t>Pedido_39</t>
-  </si>
-  <si>
-    <t>Pedido_71</t>
-  </si>
-  <si>
-    <t>Pedido_36</t>
-  </si>
-  <si>
-    <t>Pedido_43</t>
-  </si>
-  <si>
-    <t>Pedido_35</t>
-  </si>
-  <si>
-    <t>Pedido_4</t>
-  </si>
-  <si>
-    <t>Pedido_31</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_7</t>
-  </si>
-  <si>
-    <t>Pedido_56</t>
-  </si>
-  <si>
-    <t>Pedido_8</t>
-  </si>
-  <si>
-    <t>Pedido_29</t>
-  </si>
-  <si>
-    <t>Pedido_49</t>
-  </si>
-  <si>
-    <t>Pedido_15</t>
-  </si>
-  <si>
-    <t>Pedido_46</t>
-  </si>
-  <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
-    <t>Pedido_9</t>
-  </si>
-  <si>
-    <t>Pedido_6</t>
-  </si>
-  <si>
-    <t>Pedido_53</t>
-  </si>
-  <si>
-    <t>Pedido_24</t>
-  </si>
-  <si>
-    <t>Pedido_17</t>
-  </si>
-  <si>
-    <t>Pedido_19</t>
-  </si>
-  <si>
-    <t>Pedido_27</t>
-  </si>
-  <si>
-    <t>Pedido_25</t>
-  </si>
-  <si>
-    <t>Pedido_18</t>
-  </si>
-  <si>
-    <t>Pedido_55</t>
-  </si>
-  <si>
-    <t>Pedido_76</t>
-  </si>
-  <si>
-    <t>Pedido_14</t>
-  </si>
-  <si>
-    <t>Pedido_47</t>
-  </si>
-  <si>
-    <t>Pedido_51</t>
-  </si>
-  <si>
-    <t>Pedido_22</t>
-  </si>
-  <si>
-    <t>Pedido_40</t>
-  </si>
-  <si>
-    <t>Pedido_41</t>
-  </si>
-  <si>
-    <t>Pedido_67</t>
-  </si>
-  <si>
-    <t>Pedido_1</t>
-  </si>
-  <si>
-    <t>Pedido_44</t>
-  </si>
-  <si>
-    <t>Pedido_48</t>
-  </si>
-  <si>
-    <t>Pedido_30</t>
-  </si>
-  <si>
-    <t>Pedido_78</t>
-  </si>
-  <si>
-    <t>Pedido_80</t>
-  </si>
-  <si>
-    <t>Pedido_73</t>
-  </si>
-  <si>
-    <t>Pedido_61</t>
-  </si>
-  <si>
-    <t>Pedido_77</t>
-  </si>
-  <si>
-    <t>Pedido_75</t>
-  </si>
-  <si>
-    <t>Pedido_60</t>
-  </si>
-  <si>
-    <t>Pedido_79</t>
-  </si>
-  <si>
-    <t>Pedido_54</t>
-  </si>
-  <si>
-    <t>Pedido_70</t>
-  </si>
-  <si>
-    <t>Pedido_58</t>
-  </si>
-  <si>
-    <t>Pedido_38</t>
-  </si>
-  <si>
-    <t>Pedido_69</t>
-  </si>
-  <si>
-    <t>Pedido_62</t>
-  </si>
-  <si>
-    <t>Pedido_65</t>
-  </si>
-  <si>
-    <t>Pedido_50</t>
-  </si>
-  <si>
-    <t>Pedido_66</t>
-  </si>
-  <si>
-    <t>Pedido_42</t>
-  </si>
-  <si>
-    <t>Pedido_63</t>
-  </si>
-  <si>
-    <t>Pedido_68</t>
-  </si>
-  <si>
-    <t>Pedido_57</t>
-  </si>
-  <si>
-    <t>Pedido_16</t>
-  </si>
-  <si>
-    <t>Pedido_72</t>
-  </si>
-  <si>
-    <t>S065</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S041</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
-    <t>S069</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S042</t>
-  </si>
-  <si>
-    <t>S066</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S070</t>
-  </si>
-  <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S043</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S067</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S071</t>
-  </si>
-  <si>
-    <t>S047</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S068</t>
-  </si>
-  <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S048</t>
-  </si>
-  <si>
-    <t>S072</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S073</t>
-  </si>
-  <si>
-    <t>S049</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t>S077</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S074</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S054</t>
-  </si>
-  <si>
-    <t>S078</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
-    <t>S075</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S079</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S055</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S076</t>
-  </si>
-  <si>
-    <t>S052</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S056</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S080</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S057</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S061</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S058</t>
-  </si>
-  <si>
-    <t>S062</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S059</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S063</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S060</t>
-  </si>
-  <si>
-    <t>S064</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>Z4</t>
-  </si>
-  <si>
-    <t>412,9</t>
-  </si>
-  <si>
-    <t>334,0</t>
-  </si>
-  <si>
-    <t>336,0</t>
+    <t>335,0</t>
+  </si>
+  <si>
+    <t>334,8</t>
   </si>
 </sst>
 </file>
